--- a/data/georgia_census/qvemo-qartli/marneuli/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/marneuli/population_total.xlsx
@@ -1352,13 +1352,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD656BE4-219D-4ACE-9B77-24E0C8C9D6CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{851909EF-BDD9-4FEC-84B7-1372513613BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A374B5F1-324F-410E-A43B-CAB0FCE51CD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427797EF-1B73-4CB6-95FF-96237BF39C09}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B581126-CFAA-43D6-9DC1-259E6F96445B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E9CD66-612C-4399-952A-390B365097D4}"/>
 </file>